--- a/downloaded_files/CMPS103_Tutorial-35656.xlsx
+++ b/downloaded_files/CMPS103_Tutorial-35656.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mohamed Fawzy Abdelmaboud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>امنة تامر محمد شوقي الإختيار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amena Tamer Mohamed Shawky Elekhtyar</x:t>
   </x:si>
   <x:si>
     <x:t>1240029</x:t>
@@ -458,7 +467,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -758,7 +767,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1041,7 +1050,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.6309870023</x:v>
+        <x:v>45923.5056416667</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1073,7 +1082,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.6308471875</x:v>
+        <x:v>45912.6309870023</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1105,7 +1114,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.422940706</x:v>
+        <x:v>45912.6308471875</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1137,7 +1146,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45907.422940706</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1169,7 +1178,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6655696412</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1201,7 +1210,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4186757755</x:v>
+        <x:v>45907.6655696412</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1233,7 +1242,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.7229504977</x:v>
+        <x:v>45907.4186757755</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1261,9 +1270,11 @@
       <x:c r="C15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45907.7229504977</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1286,16 +1297,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45907.6655566319</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1327,7 +1336,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4228482986</x:v>
+        <x:v>45907.6655566319</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1359,7 +1368,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45907.4228482986</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1391,7 +1400,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6651444097</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1423,7 +1432,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4255050579</x:v>
+        <x:v>45907.6651444097</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1455,7 +1464,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4144538194</x:v>
+        <x:v>45907.4255050579</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1487,7 +1496,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6677939815</x:v>
+        <x:v>45907.4144538194</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1519,7 +1528,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4206420949</x:v>
+        <x:v>45906.6677939815</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1551,7 +1560,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4205525463</x:v>
+        <x:v>45907.4206420949</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1583,7 +1592,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.667399537</x:v>
+        <x:v>45907.4205525463</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1615,7 +1624,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45907.667399537</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1647,7 +1656,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4208263889</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1679,7 +1688,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6646943634</x:v>
+        <x:v>45907.4208263889</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1711,7 +1720,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.6309122685</x:v>
+        <x:v>45907.6646943634</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1743,7 +1752,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45912.6309122685</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1775,7 +1784,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1807,7 +1816,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1839,7 +1848,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6658153935</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1871,7 +1880,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6658153935</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1903,7 +1912,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1935,7 +1944,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.6433409375</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1952,6 +1961,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45912.6433409375</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS103_Tutorial-35656.xlsx
+++ b/downloaded_files/CMPS103_Tutorial-35656.xlsx
@@ -42,15 +42,6 @@
     <x:t>Ahmed Sameh Mohamed Mohamed Elghareeb</x:t>
   </x:si>
   <x:si>
-    <x:t>3230001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>أسر وليد حسن محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aser Waled Hassan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240002</x:t>
   </x:si>
   <x:si>
@@ -150,21 +141,21 @@
     <x:t>Zeyad Ahmed Mahmoud Abdelbaky Osman</x:t>
   </x:si>
   <x:si>
-    <x:t>1230190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد محمد عوض علي عوض</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ziad Mohamed Awad Ali Awad</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240196</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">سعيد احمد سعيد خطاب محمد </x:t>
   </x:si>
   <x:si>
+    <x:t>1240073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سليم اشرف عبدالرؤوف مصطفى فراج</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seleim Ashraf Abdel Raouf Mostafa</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240074</x:t>
   </x:si>
   <x:si>
@@ -217,6 +208,15 @@
   </x:si>
   <x:si>
     <x:t>ALI SHEHAB ELDIN ALI SAYED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر ايهاب عبدالفتاح عيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ehab</x:t>
   </x:si>
   <x:si>
     <x:t>1200424</x:t>
@@ -890,7 +890,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6649468403</x:v>
+        <x:v>45907.664674919</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -922,7 +922,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.664674919</x:v>
+        <x:v>45907.4199399306</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -954,7 +954,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4199399306</x:v>
+        <x:v>45915.3230905903</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -986,7 +986,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45915.3230905903</x:v>
+        <x:v>45907.6646043981</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1018,7 +1018,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6646043981</x:v>
+        <x:v>45923.5056416667</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1050,7 +1050,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45923.5056416667</x:v>
+        <x:v>45912.6309870023</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1082,7 +1082,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.6309870023</x:v>
+        <x:v>45912.6308471875</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1114,7 +1114,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.6308471875</x:v>
+        <x:v>45907.422940706</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1146,7 +1146,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.422940706</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1178,7 +1178,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45907.6655696412</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1210,7 +1210,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6655696412</x:v>
+        <x:v>45907.4186757755</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1238,11 +1238,9 @@
       <x:c r="C14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45907.4186757755</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1265,16 +1263,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.7229504977</x:v>
+        <x:v>45927.4427168981</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1297,14 +1295,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45907.6655566319</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1336,7 +1336,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6655566319</x:v>
+        <x:v>45907.4228482986</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1368,7 +1368,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4228482986</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1400,7 +1400,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45907.6651444097</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1432,7 +1432,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6651444097</x:v>
+        <x:v>45907.4255050579</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1464,7 +1464,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4255050579</x:v>
+        <x:v>45907.4144538194</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1496,7 +1496,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4144538194</x:v>
+        <x:v>45927.414653588</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>

--- a/downloaded_files/CMPS103_Tutorial-35656.xlsx
+++ b/downloaded_files/CMPS103_Tutorial-35656.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -190,15 +190,6 @@
   </x:si>
   <x:si>
     <x:t>Ali Ahmed Mohamed Mahmoud Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230068</x:t>
-  </x:si>
-  <x:si>
-    <x:t>علي تامر علي عبدالفتاح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Tamer Ali Abdel Fattah</x:t>
   </x:si>
   <x:si>
     <x:t>1220097</x:t>
@@ -467,7 +458,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -767,7 +758,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1432,7 +1423,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4255050579</x:v>
+        <x:v>45907.4144538194</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1464,7 +1455,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4144538194</x:v>
+        <x:v>45927.414653588</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1496,7 +1487,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.414653588</x:v>
+        <x:v>45906.6677939815</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1528,7 +1519,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6677939815</x:v>
+        <x:v>45907.4206420949</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1560,7 +1551,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4206420949</x:v>
+        <x:v>45907.4205525463</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1592,7 +1583,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4205525463</x:v>
+        <x:v>45907.667399537</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1624,7 +1615,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.667399537</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1656,7 +1647,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45907.4208263889</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1688,7 +1679,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4208263889</x:v>
+        <x:v>45907.6646943634</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1720,7 +1711,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6646943634</x:v>
+        <x:v>45912.6309122685</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1752,7 +1743,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.6309122685</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1784,7 +1775,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1816,7 +1807,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1848,7 +1839,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45907.6658153935</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1880,7 +1871,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6658153935</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1912,7 +1903,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1944,7 +1935,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45912.6433409375</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1961,38 +1952,6 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45912.6433409375</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS103_Tutorial-35656.xlsx
+++ b/downloaded_files/CMPS103_Tutorial-35656.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -208,6 +208,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Ehab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر طارق رفعت محمد عبداللاه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Tarek Refaat Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1200424</x:t>
@@ -458,7 +467,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -758,7 +767,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1487,7 +1496,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6677939815</x:v>
+        <x:v>45929.3711771991</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1519,7 +1528,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4206420949</x:v>
+        <x:v>45906.6677939815</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1551,7 +1560,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4205525463</x:v>
+        <x:v>45907.4206420949</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1583,7 +1592,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.667399537</x:v>
+        <x:v>45907.4205525463</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1615,7 +1624,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45907.667399537</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1647,7 +1656,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4208263889</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1679,7 +1688,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6646943634</x:v>
+        <x:v>45907.4208263889</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1711,7 +1720,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.6309122685</x:v>
+        <x:v>45907.6646943634</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1743,7 +1752,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45912.6309122685</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1775,7 +1784,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1807,7 +1816,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6658299769</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1839,7 +1848,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6658153935</x:v>
+        <x:v>45907.6658299769</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1871,7 +1880,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6658153935</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1903,7 +1912,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1935,7 +1944,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.6433409375</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1952,6 +1961,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45912.6433409375</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
